--- a/Documentação/PlanilhaBacklog.xlsx
+++ b/Documentação/PlanilhaBacklog.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a08d7f3c16d54179/Documentos/project-hunter/Documentação/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fecco\OneDrive\Área de Trabalho\project-hunter\Documentação\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CF05F9DF-C890-4CC7-B6D8-FDA6AA917521}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1D0837A-3B31-4BF7-8E8D-02E5A5105A13}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{871AB88A-CFCB-4751-B4F7-9013E6C36C98}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="48">
   <si>
     <t>id</t>
   </si>
@@ -287,6 +287,12 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -297,12 +303,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -648,346 +648,386 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="2">
+      <c r="A2" s="8">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="8">
         <v>5</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2" s="5">
         <f>SUM('Sprint Backlog'!D2:D5)</f>
         <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="4"/>
+      <c r="A3" s="8"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="6"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="5"/>
+      <c r="A4" s="8"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="7"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="2">
+      <c r="A5" s="8">
         <v>2</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="8">
         <v>5</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="5">
         <f>SUM('Sprint Backlog'!D6:D10)</f>
         <v>8.5</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="4"/>
+      <c r="A6" s="8"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="6"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="5"/>
+      <c r="A7" s="8"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="7"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="2">
+      <c r="A8" s="8">
         <v>3</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8" s="8">
         <v>4</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="5">
         <f>SUM('Sprint Backlog'!D11:D14)</f>
         <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="5"/>
+      <c r="A9" s="8"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="7"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="2">
+      <c r="A10" s="8">
         <v>4</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C10" s="8">
         <v>4</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="5">
         <f>SUM('Sprint Backlog'!D15:D17)</f>
         <v>2.5</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="5"/>
+      <c r="A11" s="8"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="7"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="2">
+      <c r="A12" s="8">
         <v>5</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="2">
+      <c r="C12" s="8">
         <v>3</v>
       </c>
-      <c r="D12" s="3">
+      <c r="D12" s="5">
         <f>SUM('Sprint Backlog'!D18:D21)</f>
         <v>2.5</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="4"/>
+      <c r="A13" s="8"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="6"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="5"/>
+      <c r="A14" s="8"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="7"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" s="2">
+      <c r="A15" s="8">
         <v>6</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="C15" s="2">
+      <c r="C15" s="8">
         <v>4</v>
       </c>
-      <c r="D15" s="3">
+      <c r="D15" s="5">
         <f>SUM('Sprint Backlog'!D22:D23)</f>
         <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="4"/>
+      <c r="A16" s="8"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="6"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="5"/>
+      <c r="A17" s="8"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="7"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" s="2">
+      <c r="A18" s="8">
         <v>7</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="C18" s="2">
+      <c r="C18" s="8">
         <v>5</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="5">
         <f>SUM('Sprint Backlog'!D24:D26)</f>
-        <v>0</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="4"/>
+      <c r="A19" s="8"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="6"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="5"/>
+      <c r="A20" s="8"/>
+      <c r="B20" s="8"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="7"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" s="2">
+      <c r="A21" s="8">
         <v>8</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B21" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="C21" s="2">
+      <c r="C21" s="8">
         <v>4</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="5">
         <f>SUM('Sprint Backlog'!D27:D29)</f>
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="4"/>
+      <c r="A22" s="8"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="6"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="5"/>
+      <c r="A23" s="8"/>
+      <c r="B23" s="8"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="7"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" s="2">
+      <c r="A24" s="8">
         <v>9</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B24" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="C24" s="2">
+      <c r="C24" s="8">
         <v>3</v>
       </c>
-      <c r="D24" s="3">
+      <c r="D24" s="5">
         <f>SUM('Sprint Backlog'!D30:D33)</f>
-        <v>6.5</v>
+        <v>10.5</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" s="2"/>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="5"/>
+      <c r="A25" s="8"/>
+      <c r="B25" s="8"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="7"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26" s="2">
+      <c r="A26" s="8">
         <v>10</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="B26" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="C26" s="2">
+      <c r="C26" s="8">
         <v>2</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="5">
         <f>SUM('Sprint Backlog'!D34:D37)</f>
         <v>5.5</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A27" s="2"/>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="4"/>
+      <c r="A27" s="8"/>
+      <c r="B27" s="8"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="6"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A28" s="2"/>
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="5"/>
+      <c r="A28" s="8"/>
+      <c r="B28" s="8"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="7"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A29" s="2">
+      <c r="A29" s="8">
         <v>11</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="B29" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="C29" s="2">
+      <c r="C29" s="8">
         <v>2</v>
       </c>
-      <c r="D29" s="3">
+      <c r="D29" s="5">
         <f>SUM('Sprint Backlog'!D38:D41)</f>
         <v>5.25</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A30" s="2"/>
-      <c r="B30" s="2"/>
-      <c r="C30" s="2"/>
-      <c r="D30" s="4"/>
+      <c r="A30" s="8"/>
+      <c r="B30" s="8"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="6"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A31" s="2"/>
-      <c r="B31" s="2"/>
-      <c r="C31" s="2"/>
-      <c r="D31" s="5"/>
+      <c r="A31" s="8"/>
+      <c r="B31" s="8"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="7"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A32" s="2">
+      <c r="A32" s="8">
         <v>12</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="B32" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C32" s="2">
+      <c r="C32" s="8">
         <v>5</v>
       </c>
-      <c r="D32" s="3">
+      <c r="D32" s="5">
         <f>SUM('Sprint Backlog'!D42:D48)</f>
         <v>13.5</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A33" s="2"/>
-      <c r="B33" s="2"/>
-      <c r="C33" s="2"/>
-      <c r="D33" s="4"/>
+      <c r="A33" s="8"/>
+      <c r="B33" s="8"/>
+      <c r="C33" s="8"/>
+      <c r="D33" s="6"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A34" s="2"/>
-      <c r="B34" s="2"/>
-      <c r="C34" s="2"/>
-      <c r="D34" s="4"/>
+      <c r="A34" s="8"/>
+      <c r="B34" s="8"/>
+      <c r="C34" s="8"/>
+      <c r="D34" s="6"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A35" s="2"/>
-      <c r="B35" s="2"/>
-      <c r="C35" s="2"/>
-      <c r="D35" s="5"/>
+      <c r="A35" s="8"/>
+      <c r="B35" s="8"/>
+      <c r="C35" s="8"/>
+      <c r="D35" s="7"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A36" s="3">
+      <c r="A36" s="5">
         <v>13</v>
       </c>
-      <c r="B36" s="3" t="s">
+      <c r="B36" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C36" s="3">
+      <c r="C36" s="5">
         <v>5</v>
       </c>
-      <c r="D36" s="3">
+      <c r="D36" s="5">
         <f>SUM('Sprint Backlog'!D49:D53)</f>
         <v>10.5</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A37" s="4"/>
-      <c r="B37" s="4"/>
-      <c r="C37" s="4"/>
-      <c r="D37" s="4"/>
+      <c r="A37" s="6"/>
+      <c r="B37" s="6"/>
+      <c r="C37" s="6"/>
+      <c r="D37" s="6"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A38" s="5"/>
-      <c r="B38" s="5"/>
-      <c r="C38" s="5"/>
-      <c r="D38" s="5"/>
+      <c r="A38" s="7"/>
+      <c r="B38" s="7"/>
+      <c r="C38" s="7"/>
+      <c r="D38" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="52">
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="C2:C4"/>
+    <mergeCell ref="D2:D4"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="C5:C7"/>
+    <mergeCell ref="D5:D7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="A12:A14"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="C12:C14"/>
+    <mergeCell ref="D12:D14"/>
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="C15:C17"/>
+    <mergeCell ref="D15:D17"/>
+    <mergeCell ref="A18:A20"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="C18:C20"/>
+    <mergeCell ref="D18:D20"/>
+    <mergeCell ref="A21:A23"/>
+    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="C21:C23"/>
+    <mergeCell ref="D21:D23"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="A26:A28"/>
+    <mergeCell ref="B26:B28"/>
+    <mergeCell ref="C26:C28"/>
+    <mergeCell ref="D26:D28"/>
     <mergeCell ref="A36:A38"/>
     <mergeCell ref="B36:B38"/>
     <mergeCell ref="C36:C38"/>
@@ -1000,46 +1040,6 @@
     <mergeCell ref="B32:B35"/>
     <mergeCell ref="C32:C35"/>
     <mergeCell ref="D32:D35"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="A26:A28"/>
-    <mergeCell ref="B26:B28"/>
-    <mergeCell ref="C26:C28"/>
-    <mergeCell ref="D26:D28"/>
-    <mergeCell ref="A18:A20"/>
-    <mergeCell ref="B18:B20"/>
-    <mergeCell ref="C18:C20"/>
-    <mergeCell ref="D18:D20"/>
-    <mergeCell ref="A21:A23"/>
-    <mergeCell ref="B21:B23"/>
-    <mergeCell ref="C21:C23"/>
-    <mergeCell ref="D21:D23"/>
-    <mergeCell ref="A12:A14"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="C12:C14"/>
-    <mergeCell ref="D12:D14"/>
-    <mergeCell ref="A15:A17"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="C15:C17"/>
-    <mergeCell ref="D15:D17"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="C2:C4"/>
-    <mergeCell ref="D2:D4"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="C5:C7"/>
-    <mergeCell ref="D5:D7"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -1049,8 +1049,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB0B18D4-338A-4F5F-841C-BE448931BD93}">
   <dimension ref="A1:F53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C38" sqref="C38:C41"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1084,783 +1084,808 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="2">
+      <c r="A2" s="8">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="8">
         <v>5</v>
       </c>
-      <c r="D2" s="6">
+      <c r="D2" s="2">
         <v>3</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="8">
+      <c r="F2" s="4">
         <v>43879</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="6">
+      <c r="A3" s="8"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="2">
         <v>2</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="F3" s="8">
+      <c r="F3" s="4">
         <v>43888</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="6">
+      <c r="A4" s="8"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="2">
         <v>3</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="8">
+      <c r="F4" s="4">
         <v>43927</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="6">
+      <c r="A5" s="8"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="2">
         <v>1</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E5" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="8">
+      <c r="F5" s="4">
         <v>43934</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="4">
+      <c r="A6" s="6">
         <v>2</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="6">
         <v>5</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D6" s="2">
         <v>0.5</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="E6" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="F6" s="8">
+      <c r="F6" s="4">
         <v>43885</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="6">
+      <c r="A7" s="6"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="2">
         <v>2</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="E7" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F7" s="8">
+      <c r="F7" s="4">
         <v>43885</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="6">
+      <c r="A8" s="6"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="2">
         <v>3</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="E8" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F8" s="8">
+      <c r="F8" s="4">
         <v>43891</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="6">
+      <c r="A9" s="6"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="2">
         <v>2</v>
       </c>
-      <c r="E9" s="7" t="s">
+      <c r="E9" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="F9" s="8">
+      <c r="F9" s="4">
         <v>43891</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="5"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="6">
+      <c r="A10" s="7"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="2">
         <v>1</v>
       </c>
-      <c r="E10" s="7" t="s">
+      <c r="E10" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F10" s="8">
+      <c r="F10" s="4">
         <v>43891</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="3">
+      <c r="A11" s="5">
         <v>3</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C11" s="5">
         <v>4</v>
       </c>
-      <c r="D11" s="6">
+      <c r="D11" s="2">
         <v>2</v>
       </c>
-      <c r="E11" s="7" t="s">
+      <c r="E11" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F11" s="8">
+      <c r="F11" s="4">
         <v>43885</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="6">
+      <c r="A12" s="6"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="2">
         <v>3</v>
       </c>
-      <c r="E12" s="7" t="s">
+      <c r="E12" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F12" s="8">
+      <c r="F12" s="4">
         <v>43885</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="4"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="6">
+      <c r="A13" s="6"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="2">
         <v>2</v>
       </c>
-      <c r="E13" s="7" t="s">
+      <c r="E13" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="F13" s="8">
+      <c r="F13" s="4">
         <v>43885</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="5"/>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="6">
+      <c r="A14" s="7"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="2">
         <v>1</v>
       </c>
-      <c r="E14" s="7" t="s">
+      <c r="E14" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F14" s="8">
+      <c r="F14" s="4">
         <v>43885</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="3">
+      <c r="A15" s="5">
         <v>4</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="C15" s="3">
+      <c r="C15" s="5">
         <v>4</v>
       </c>
-      <c r="D15" s="6">
+      <c r="D15" s="2">
         <v>1</v>
       </c>
-      <c r="E15" s="7" t="s">
+      <c r="E15" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F15" s="8">
+      <c r="F15" s="4">
         <v>43891</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="6">
+      <c r="A16" s="6"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="2">
         <v>1</v>
       </c>
-      <c r="E16" s="7" t="s">
+      <c r="E16" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F16" s="8">
+      <c r="F16" s="4">
         <v>43891</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="5"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="6">
+      <c r="A17" s="7"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="2">
         <v>0.5</v>
       </c>
-      <c r="E17" s="7" t="s">
+      <c r="E17" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F17" s="8">
+      <c r="F17" s="4">
         <v>43891</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="3">
+      <c r="A18" s="5">
         <v>5</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C18" s="3">
+      <c r="C18" s="5">
         <v>3</v>
       </c>
-      <c r="D18" s="6">
+      <c r="D18" s="2">
         <v>0.5</v>
       </c>
-      <c r="E18" s="7" t="s">
+      <c r="E18" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F18" s="8">
+      <c r="F18" s="4">
         <v>43891</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="4"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="6">
+      <c r="A19" s="6"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="2">
         <v>0.5</v>
       </c>
-      <c r="E19" s="7" t="s">
+      <c r="E19" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F19" s="8">
+      <c r="F19" s="4">
         <v>43891</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="4"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="6">
+      <c r="A20" s="6"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="2">
         <v>1</v>
       </c>
-      <c r="E20" s="7" t="s">
+      <c r="E20" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F20" s="8">
+      <c r="F20" s="4">
         <v>43891</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="5"/>
-      <c r="B21" s="5"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="6">
+      <c r="A21" s="7"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="2">
         <v>0.5</v>
       </c>
-      <c r="E21" s="7" t="s">
+      <c r="E21" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F21" s="8">
+      <c r="F21" s="4">
         <v>43891</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" s="3">
+      <c r="A22" s="5">
         <v>6</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B22" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C22" s="3">
+      <c r="C22" s="5">
         <v>4</v>
       </c>
-      <c r="D22" s="6">
+      <c r="D22" s="2">
         <v>2.5</v>
       </c>
-      <c r="E22" s="7" t="s">
+      <c r="E22" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="F22" s="8">
+      <c r="F22" s="4">
         <v>43891</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" s="5"/>
-      <c r="B23" s="5"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="6">
+      <c r="A23" s="7"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="2">
         <v>0.5</v>
       </c>
-      <c r="E23" s="7" t="s">
+      <c r="E23" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F23" s="8">
+      <c r="F23" s="4">
         <v>43891</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" s="2">
+      <c r="A24" s="8">
         <v>7</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B24" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="C24" s="2">
+      <c r="C24" s="8">
         <v>5</v>
       </c>
-      <c r="D24" s="6"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="8"/>
+      <c r="D24" s="2">
+        <v>1</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F24" s="4">
+        <v>43948</v>
+      </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" s="2"/>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="8"/>
+      <c r="A25" s="8"/>
+      <c r="B25" s="8"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="2">
+        <v>3</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F25" s="4">
+        <v>43948</v>
+      </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26" s="2"/>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="7"/>
-      <c r="F26" s="8"/>
+      <c r="A26" s="8"/>
+      <c r="B26" s="8"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F26" s="4">
+        <v>43948</v>
+      </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A27" s="2">
+      <c r="A27" s="8">
         <v>8</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="B27" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="C27" s="2">
+      <c r="C27" s="8">
         <v>4</v>
       </c>
-      <c r="D27" s="6"/>
-      <c r="E27" s="7"/>
-      <c r="F27" s="8"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="4"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A28" s="2"/>
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="6"/>
-      <c r="E28" s="7"/>
-      <c r="F28" s="8"/>
+      <c r="A28" s="8"/>
+      <c r="B28" s="8"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="4"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A29" s="2"/>
-      <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="6"/>
-      <c r="E29" s="7"/>
-      <c r="F29" s="8"/>
+      <c r="A29" s="8"/>
+      <c r="B29" s="8"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="4"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A30" s="2">
+      <c r="A30" s="8">
         <v>9</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="B30" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="C30" s="2">
+      <c r="C30" s="8">
         <v>3</v>
       </c>
-      <c r="D30" s="6">
+      <c r="D30" s="2">
+        <v>6</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F30" s="4">
+        <v>43941</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31" s="8"/>
+      <c r="B31" s="8"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="2">
         <v>2</v>
       </c>
-      <c r="E30" s="7" t="s">
+      <c r="E31" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F31" s="4">
+        <v>43941</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A32" s="8"/>
+      <c r="B32" s="8"/>
+      <c r="C32" s="8"/>
+      <c r="D32" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F32" s="4">
+        <v>43941</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A33" s="8"/>
+      <c r="B33" s="8"/>
+      <c r="C33" s="8"/>
+      <c r="D33" s="2">
+        <v>1</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F33" s="4">
+        <v>43941</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A34" s="8">
+        <v>10</v>
+      </c>
+      <c r="B34" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C34" s="8">
+        <v>3</v>
+      </c>
+      <c r="D34" s="2">
+        <v>2</v>
+      </c>
+      <c r="E34" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F30" s="8">
+      <c r="F34" s="4">
+        <v>43948</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A35" s="8"/>
+      <c r="B35" s="8"/>
+      <c r="C35" s="8"/>
+      <c r="D35" s="2">
+        <v>2</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F35" s="4">
+        <v>43948</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A36" s="8"/>
+      <c r="B36" s="8"/>
+      <c r="C36" s="8"/>
+      <c r="D36" s="2">
+        <v>1</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F36" s="4">
+        <v>43948</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A37" s="8"/>
+      <c r="B37" s="8"/>
+      <c r="C37" s="8"/>
+      <c r="D37" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F37" s="4">
+        <v>43948</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A38" s="8">
+        <v>11</v>
+      </c>
+      <c r="B38" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C38" s="8">
+        <v>2</v>
+      </c>
+      <c r="D38" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F38" s="4">
+        <v>43948</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A39" s="8"/>
+      <c r="B39" s="8"/>
+      <c r="C39" s="8"/>
+      <c r="D39" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" s="4">
+        <v>43948</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A40" s="8"/>
+      <c r="B40" s="8"/>
+      <c r="C40" s="8"/>
+      <c r="D40" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F40" s="4">
+        <v>43948</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A41" s="8"/>
+      <c r="B41" s="8"/>
+      <c r="C41" s="8"/>
+      <c r="D41" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F41" s="4">
+        <v>43948</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A42" s="5">
+        <v>12</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C42" s="5">
+        <v>5</v>
+      </c>
+      <c r="D42" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F42" s="4">
+        <v>43876</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A43" s="6"/>
+      <c r="B43" s="6"/>
+      <c r="C43" s="6"/>
+      <c r="D43" s="2">
+        <v>2</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F43" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A44" s="6"/>
+      <c r="B44" s="6"/>
+      <c r="C44" s="6"/>
+      <c r="D44" s="2">
+        <v>2</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F44" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A45" s="6"/>
+      <c r="B45" s="6"/>
+      <c r="C45" s="6"/>
+      <c r="D45" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F45" s="4">
+        <v>43879</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A46" s="6"/>
+      <c r="B46" s="6"/>
+      <c r="C46" s="6"/>
+      <c r="D46" s="2">
+        <v>2</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F46" s="4">
         <v>43941</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A31" s="2"/>
-      <c r="B31" s="2"/>
-      <c r="C31" s="2"/>
-      <c r="D31" s="6">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A47" s="6"/>
+      <c r="B47" s="6"/>
+      <c r="C47" s="6"/>
+      <c r="D47" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F47" s="4">
+        <v>43941</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A48" s="7"/>
+      <c r="B48" s="7"/>
+      <c r="C48" s="7"/>
+      <c r="D48" s="2">
+        <v>1</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F48" s="4">
+        <v>43895</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A49" s="5">
+        <v>13</v>
+      </c>
+      <c r="B49" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C49" s="5">
+        <v>5</v>
+      </c>
+      <c r="D49" s="2">
         <v>2</v>
       </c>
-      <c r="E31" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F31" s="8">
-        <v>43941</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A32" s="2"/>
-      <c r="B32" s="2"/>
-      <c r="C32" s="2"/>
-      <c r="D32" s="6">
+      <c r="E49" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F49" s="4">
+        <v>43934</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A50" s="6"/>
+      <c r="B50" s="6"/>
+      <c r="C50" s="6"/>
+      <c r="D50" s="2">
         <v>1.5</v>
       </c>
-      <c r="E32" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="F32" s="8">
-        <v>43941</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A33" s="2"/>
-      <c r="B33" s="2"/>
-      <c r="C33" s="2"/>
-      <c r="D33" s="6">
-        <v>1</v>
-      </c>
-      <c r="E33" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F33" s="8">
-        <v>43941</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A34" s="2">
-        <v>10</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C34" s="2">
-        <v>3</v>
-      </c>
-      <c r="D34" s="6">
+      <c r="E50" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F50" s="4">
+        <v>43880</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A51" s="6"/>
+      <c r="B51" s="6"/>
+      <c r="C51" s="6"/>
+      <c r="D51" s="2">
         <v>2</v>
       </c>
-      <c r="E34" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F34" s="8">
-        <v>43948</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A35" s="2"/>
-      <c r="B35" s="2"/>
-      <c r="C35" s="2"/>
-      <c r="D35" s="6">
-        <v>2</v>
-      </c>
-      <c r="E35" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F35" s="8">
-        <v>43948</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A36" s="2"/>
-      <c r="B36" s="2"/>
-      <c r="C36" s="2"/>
-      <c r="D36" s="6">
-        <v>1</v>
-      </c>
-      <c r="E36" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="F36" s="8">
-        <v>43948</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A37" s="2"/>
-      <c r="B37" s="2"/>
-      <c r="C37" s="2"/>
-      <c r="D37" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="E37" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F37" s="8">
-        <v>43948</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A38" s="2">
-        <v>11</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C38" s="2">
-        <v>2</v>
-      </c>
-      <c r="D38" s="6">
-        <v>1.5</v>
-      </c>
-      <c r="E38" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="F38" s="8">
-        <v>43948</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A39" s="2"/>
-      <c r="B39" s="2"/>
-      <c r="C39" s="2"/>
-      <c r="D39" s="6">
+      <c r="E51" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F51" s="4">
+        <v>43888</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A52" s="6"/>
+      <c r="B52" s="6"/>
+      <c r="C52" s="6"/>
+      <c r="D52" s="2">
         <v>2.5</v>
       </c>
-      <c r="E39" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="F39" s="8">
-        <v>43948</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A40" s="2"/>
-      <c r="B40" s="2"/>
-      <c r="C40" s="2"/>
-      <c r="D40" s="6">
-        <v>0.75</v>
-      </c>
-      <c r="E40" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="F40" s="8">
-        <v>43948</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A41" s="2"/>
-      <c r="B41" s="2"/>
-      <c r="C41" s="2"/>
-      <c r="D41" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="E41" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F41" s="8">
-        <v>43948</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A42" s="3">
-        <v>12</v>
-      </c>
-      <c r="B42" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C42" s="3">
-        <v>5</v>
-      </c>
-      <c r="D42" s="6">
+      <c r="E52" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="F52" s="4">
+        <v>43894</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A53" s="7"/>
+      <c r="B53" s="7"/>
+      <c r="C53" s="7"/>
+      <c r="D53" s="2">
         <v>2.5</v>
       </c>
-      <c r="E42" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F42" s="8">
-        <v>43876</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A43" s="4"/>
-      <c r="B43" s="4"/>
-      <c r="C43" s="4"/>
-      <c r="D43" s="6">
-        <v>2</v>
-      </c>
-      <c r="E43" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F43" s="8" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A44" s="4"/>
-      <c r="B44" s="4"/>
-      <c r="C44" s="4"/>
-      <c r="D44" s="6">
-        <v>2</v>
-      </c>
-      <c r="E44" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F44" s="8" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A45" s="4"/>
-      <c r="B45" s="4"/>
-      <c r="C45" s="4"/>
-      <c r="D45" s="6">
-        <v>1.5</v>
-      </c>
-      <c r="E45" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="F45" s="8">
-        <v>43879</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A46" s="4"/>
-      <c r="B46" s="4"/>
-      <c r="C46" s="4"/>
-      <c r="D46" s="6">
-        <v>2</v>
-      </c>
-      <c r="E46" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F46" s="8">
-        <v>43941</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A47" s="4"/>
-      <c r="B47" s="4"/>
-      <c r="C47" s="4"/>
-      <c r="D47" s="6">
-        <v>2.5</v>
-      </c>
-      <c r="E47" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="F47" s="8">
-        <v>43941</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A48" s="5"/>
-      <c r="B48" s="5"/>
-      <c r="C48" s="5"/>
-      <c r="D48" s="6">
-        <v>1</v>
-      </c>
-      <c r="E48" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="F48" s="8">
-        <v>43895</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A49" s="3">
-        <v>13</v>
-      </c>
-      <c r="B49" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C49" s="3">
-        <v>5</v>
-      </c>
-      <c r="D49" s="6">
-        <v>2</v>
-      </c>
-      <c r="E49" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="F49" s="8">
-        <v>43934</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A50" s="4"/>
-      <c r="B50" s="4"/>
-      <c r="C50" s="4"/>
-      <c r="D50" s="6">
-        <v>1.5</v>
-      </c>
-      <c r="E50" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="F50" s="8">
-        <v>43880</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A51" s="4"/>
-      <c r="B51" s="4"/>
-      <c r="C51" s="4"/>
-      <c r="D51" s="6">
-        <v>2</v>
-      </c>
-      <c r="E51" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="F51" s="8">
-        <v>43888</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A52" s="4"/>
-      <c r="B52" s="4"/>
-      <c r="C52" s="4"/>
-      <c r="D52" s="6">
-        <v>2.5</v>
-      </c>
-      <c r="E52" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="F52" s="8">
-        <v>43894</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A53" s="5"/>
-      <c r="B53" s="5"/>
-      <c r="C53" s="5"/>
-      <c r="D53" s="6">
-        <v>2.5</v>
-      </c>
-      <c r="E53" s="7" t="s">
+      <c r="E53" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="F53" s="8">
+      <c r="F53" s="4">
         <v>43927</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="39">
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="C49:C53"/>
-    <mergeCell ref="B49:B53"/>
-    <mergeCell ref="A49:A53"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="C2:C5"/>
+    <mergeCell ref="A6:A10"/>
+    <mergeCell ref="A18:A21"/>
+    <mergeCell ref="B18:B21"/>
+    <mergeCell ref="C18:C21"/>
+    <mergeCell ref="A11:A14"/>
+    <mergeCell ref="B11:B14"/>
+    <mergeCell ref="C11:C14"/>
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="C15:C17"/>
     <mergeCell ref="B6:B10"/>
     <mergeCell ref="C6:C10"/>
     <mergeCell ref="C42:C48"/>
@@ -1877,23 +1902,16 @@
     <mergeCell ref="C34:C37"/>
     <mergeCell ref="A24:A26"/>
     <mergeCell ref="B24:B26"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="C49:C53"/>
+    <mergeCell ref="B49:B53"/>
+    <mergeCell ref="A49:A53"/>
     <mergeCell ref="C24:C26"/>
     <mergeCell ref="A27:A29"/>
     <mergeCell ref="B27:B29"/>
     <mergeCell ref="C27:C29"/>
-    <mergeCell ref="A18:A21"/>
-    <mergeCell ref="B18:B21"/>
-    <mergeCell ref="C18:C21"/>
-    <mergeCell ref="A11:A14"/>
-    <mergeCell ref="B11:B14"/>
-    <mergeCell ref="C11:C14"/>
-    <mergeCell ref="A15:A17"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="C15:C17"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="B2:B5"/>
-    <mergeCell ref="C2:C5"/>
-    <mergeCell ref="A6:A10"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
